--- a/mbs-perturbation/nano/multinomialNB/nano-multinomialNB-results.xlsx
+++ b/mbs-perturbation/nano/multinomialNB/nano-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5532710280373832</v>
+        <v>0.4800596852957135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5484562607204118</v>
+        <v>0.4403358113304282</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5532710280373832</v>
+        <v>0.4800596852957135</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.148936170212766</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5727699530516431</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5354411764705882</v>
+        <v>0.4289544235924933</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5727699530516431</v>
+        <v>0.4123711340206185</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03409090909090909</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3754694835680751</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3853196772191185</v>
+        <v>0.4479166666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3754694835680751</v>
+        <v>0.4432989690721649</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4338028169014084</v>
+        <v>0.266839378238342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2688657584570641</v>
+        <v>0.326984126984127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4338028169014084</v>
+        <v>0.266839378238342</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05696202531645569</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3752347417840376</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2727840199750312</v>
+        <v>0.6164631388511985</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3752347417840376</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09561686854307375</v>
+        <v>0.216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4621096046685095</v>
+        <v>0.4363033070095783</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4021733785684428</v>
+        <v>0.4521308334849827</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4621096046685095</v>
+        <v>0.4363033070095783</v>
       </c>
     </row>
   </sheetData>
